--- a/docs/source/recursos/agricultura/tabla_cat_fv_agtem_bio_cober_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/agricultura/tabla_cat_fv_agtem_bio_cober_cobertura_usv_svi_16cats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EC0A36-2DC0-4294-85A2-EDD96C36B01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08AFFE-B997-4B8B-A4E1-E31B087EDC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F879907D-B976-4D78-92BE-EAAFE967E4C3}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,9 +98,6 @@
     <t>Sin vegetación</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Tular</t>
   </si>
   <si>
@@ -115,6 +111,9 @@
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -179,27 +178,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="clasificacion"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Importancia</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -571,7 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8033DF1-4273-4FAB-B026-D9D9EE818112}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -600,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <f>VLOOKUP(C2,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C2,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -615,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <f>VLOOKUP(C3,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C3,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -630,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>VLOOKUP(C4,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C4,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -645,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>VLOOKUP(C5,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C5,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -660,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f>VLOOKUP(C6,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C6,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -675,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>VLOOKUP(C7,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C7,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.25</v>
       </c>
     </row>
@@ -684,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f>VLOOKUP(C8,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C8,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.25</v>
       </c>
     </row>
@@ -705,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <f>VLOOKUP(C9,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C9,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -720,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <f>VLOOKUP(C10,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C10,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -735,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <f>VLOOKUP(C11,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C11,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -750,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <f>VLOOKUP(C12,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C12,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -765,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <f>VLOOKUP(C13,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C13,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -774,13 +754,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <f>VLOOKUP(C14,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C14,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -789,13 +769,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3">
-        <f>VLOOKUP(C15,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C15,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -804,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <f>VLOOKUP(C16,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C16,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -819,13 +799,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3">
-        <f>VLOOKUP(C17,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C17,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -834,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3">
-        <f>VLOOKUP(C18,[2]clasificacion!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C18,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -854,7 +834,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F8D8851-5535-4BD1-B5EB-450E86774367}">
           <x14:formula1>
-            <xm:f>[tabla_fv_agtem_bio_cober_cobertura_usv_svi_16cats.xlsm]clasificacion!#REF!</xm:f>
+            <xm:f>'C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sectores\agricultura\funciones_valor\[tabla_fv_agtem_bio_cober_cobertura_usv_svi_16cats.xlsm]clasificacion'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C18</xm:sqref>
         </x14:dataValidation>
